--- a/biology/Botanique/Tanzlinde_de_Bergheim/Tanzlinde_de_Bergheim.xlsx
+++ b/biology/Botanique/Tanzlinde_de_Bergheim/Tanzlinde_de_Bergheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tanzlinde de Bergheim est un tilleul de danse  et un arbre remarquable[1],[2] se trouvant à Bergheim, dans le département du Haut-Rhin.
+Le tanzlinde de Bergheim est un tilleul de danse  et un arbre remarquable, se trouvant à Bergheim, dans le département du Haut-Rhin.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se trouve dans le jardin public du Herrengarten[3].
-Des occupants allemands l'abîmèrent par le feu en 1917, et il a aujourd'hui une béquille[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se trouve dans le jardin public du Herrengarten.
+Des occupants allemands l'abîmèrent par le feu en 1917, et il a aujourd'hui une béquille
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut planté en 1313, en commémoration des privilèges (droits de justice, d’asile, de monnaie et de péage) accordés à Bergheim par les Habsbourg[2], siècle à partir duquel on aurait commencé à festoyer sous l'arbre.
-En 1848, le Comité pour la Révolution prononça ses discours sous l'arbre[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut planté en 1313, en commémoration des privilèges (droits de justice, d’asile, de monnaie et de péage) accordés à Bergheim par les Habsbourg, siècle à partir duquel on aurait commencé à festoyer sous l'arbre.
+En 1848, le Comité pour la Révolution prononça ses discours sous l'arbre
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un tilleul à grandes feuilles[4] qui, en 2017, mesurait 17 mètres de hauts pour 6,3 de circonférence[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un tilleul à grandes feuilles qui, en 2017, mesurait 17 mètres de hauts pour 6,3 de circonférence
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est aujourd'hui le point de rencontres des « gardiens du tilleul » et le lieu de nombreuses animations[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est aujourd'hui le point de rencontres des « gardiens du tilleul » et le lieu de nombreuses animations
 </t>
         </is>
       </c>
